--- a/Data_file/Account OB partner code1.xlsx
+++ b/Data_file/Account OB partner code1.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$535</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$B$535</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="594">
   <si>
     <t>Number</t>
   </si>
@@ -1802,6 +1803,9 @@
   </si>
   <si>
     <t>Customer name</t>
+  </si>
+  <si>
+    <t>RO-0010858</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2159,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6367,7 +6482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B535"/>
   <sheetViews>
